--- a/25.1.Epoxy/i0.Filenames/8.xlsx
+++ b/25.1.Epoxy/i0.Filenames/8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Larry\GitHub\OpenStack-scripts\25.1.Epoxy\i0.Filenames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E06619D-8C5D-4D5B-8BE9-9343BDEFEE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE79056-D518-4B5D-9346-DB21FA23C7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38295" yWindow="-12810" windowWidth="18960" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37950" yWindow="-12465" windowWidth="18960" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>ansible-role-atos-hsm</t>
   </si>
@@ -147,9 +147,6 @@
     <t>python-openstackclient</t>
   </si>
   <si>
-    <t>7.2.0</t>
-  </si>
-  <si>
     <t>release-test</t>
   </si>
   <si>
@@ -159,16 +156,10 @@
     <t>tempest</t>
   </si>
   <si>
-    <t>42.0.0</t>
-  </si>
-  <si>
     <t>43.0.0</t>
   </si>
   <si>
     <t>Other Projects</t>
-  </si>
-  <si>
-    <t>Recent</t>
   </si>
 </sst>
 </file>
@@ -504,33 +495,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>8.01</v>
       </c>
@@ -540,11 +527,8 @@
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>8.02</v>
       </c>
@@ -554,11 +538,8 @@
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>8.0299999999999994</v>
       </c>
@@ -568,11 +549,8 @@
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>8.0399999999999991</v>
       </c>
@@ -582,11 +560,8 @@
       <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>8.0500000000000007</v>
       </c>
@@ -596,11 +571,8 @@
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>8.06</v>
       </c>
@@ -610,11 +582,8 @@
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8.07</v>
       </c>
@@ -624,11 +593,8 @@
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8.08</v>
       </c>
@@ -638,11 +604,8 @@
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8.09</v>
       </c>
@@ -650,13 +613,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8.1</v>
       </c>
@@ -666,11 +626,8 @@
       <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>8.11</v>
       </c>
@@ -680,11 +637,8 @@
       <c r="C13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>8.1199999999999992</v>
       </c>
@@ -694,11 +648,8 @@
       <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>8.1300000000000008</v>
       </c>
@@ -708,11 +659,8 @@
       <c r="C15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>8.14</v>
       </c>
@@ -722,11 +670,8 @@
       <c r="C16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>8.15</v>
       </c>
@@ -736,11 +681,8 @@
       <c r="C17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>8.16</v>
       </c>
@@ -750,11 +692,8 @@
       <c r="C18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>8.17</v>
       </c>
@@ -764,11 +703,8 @@
       <c r="C19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>8.18</v>
       </c>
@@ -778,11 +714,8 @@
       <c r="C20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>8.19</v>
       </c>
@@ -792,11 +725,8 @@
       <c r="C21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>8.1999999999999993</v>
       </c>
@@ -806,11 +736,8 @@
       <c r="C22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>8.2100000000000009</v>
       </c>
@@ -820,11 +747,8 @@
       <c r="C23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>8.2200000000000006</v>
       </c>
@@ -834,11 +758,8 @@
       <c r="C24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>8.23</v>
       </c>
@@ -846,52 +767,40 @@
         <v>39</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>8.2399999999999896</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>8.2499999999999893</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>8.2599999999999891</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
